--- a/izlaz3.xlsx
+++ b/izlaz3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>.....</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary: </t>
+  </si>
+  <si>
+    <t>Avg Years</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="57">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -141,18 +150,312 @@
     <font>
       <name val="Calibri"/>
       <sz val="18.0"/>
+      <i val="true"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color rgb="FFF72105"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color rgb="FF22D3D6"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -160,14 +463,592 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="25" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="25" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="25" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="31" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="35" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="40" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -175,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,177 +1068,190 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s" s="66">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s" s="58">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="59">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="60">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s" s="61">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s" s="62">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s" s="64">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s" s="72">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s" s="67">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s" s="73">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s" s="68">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s" s="24">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s" s="25">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s" s="26">
         <v>24</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s" s="27">
         <v>25</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s" s="74">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s" s="69">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s" s="30">
         <v>27</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s" s="31">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s" s="33">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s" s="34">
         <v>23</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s" s="36">
         <v>25</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s" s="75">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s" s="70">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s" s="39">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s" s="40">
         <v>31</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s" s="41">
         <v>10</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s" s="42">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s" s="43">
         <v>32</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s" s="44">
         <v>33</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s" s="45">
         <v>34</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s" s="76">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s" s="78">
         <v>35</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s" s="79">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s" s="80">
         <v>31</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s" s="81">
         <v>26</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s" s="82">
         <v>13</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s" s="83">
         <v>14</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s" s="84">
         <v>34</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s" s="85">
         <v>36</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s" s="86">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="56">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
